--- a/medicine/Sexualité et sexologie/Urologie/Urologie.xlsx
+++ b/medicine/Sexualité et sexologie/Urologie/Urologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’urologie (du grec ancien οὖρον / oūron, « urine »[1],[2]) est le domaine de la médecine qui s'applique aux reins, aux voies urinaires des femmes ou des hommes, au système reproducteur masculin (appareil urogénital masculin) et aux glandes surrénales.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’urologie (du grec ancien οὖρον / oūron, « urine »,) est le domaine de la médecine qui s'applique aux reins, aux voies urinaires des femmes ou des hommes, au système reproducteur masculin (appareil urogénital masculin) et aux glandes surrénales.
 Il s'agit d'une spécialité médicochirurgicale.
 Les praticiens qui s'en occupent sont appelés urologues. En France ils sont titulaires du diplôme d'études spécialisées (DES) de chirurgie générale et du diplôme d'études spécialisées complémentaires (DESC) d'urologie.
 </t>
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'urologie est une spécialité chirurgicale qui trouve ses racines dans l'antiquité gréco-romaine (décrite par Hippocrate et perfectionnée jusqu'au siècle de l'empereur Auguste), et notamment avec Aulus Cornelius Celsus (Ier siècle apr. J.-C.)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'urologie est une spécialité chirurgicale qui trouve ses racines dans l'antiquité gréco-romaine (décrite par Hippocrate et perfectionnée jusqu'au siècle de l'empereur Auguste), et notamment avec Aulus Cornelius Celsus (Ier siècle apr. J.-C.).
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,6 +587,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -597,6 +615,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -622,7 +642,9 @@
           <t>Urologues célèbres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Joaquín Albarrán (1860-1912), urologue français d'origine cubaine, pionnier de l'endo-urologie.
 Jean Auvert (1919-2017), urologue français de 1955 à 1988 participa dans l'équipe de Jean Hamburger à la première transplantation rénale réussie entre deux jumeaux non identiques en juin 1959 avec Jean Vaysse et dont le receveur, protégé par irradiation, vécut 28 ans.
